--- a/$COIN.xlsx
+++ b/$COIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3AF594-1728-4214-AC4B-71F2EC5C0C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7831D5D-5FCF-42EB-AE8E-5B9036FBDD97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="10275" activeTab="1" xr2:uid="{11DC9647-7A04-4C84-A22E-873547FEC445}"/>
   </bookViews>
@@ -369,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -560,15 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -582,24 +573,79 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,52 +654,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1113,484 +1113,484 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="H5" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>57.46</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>141.79</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="H7" s="42">
+      <c r="D7" s="14"/>
+      <c r="H7" s="33">
         <v>44866</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <f>C6*C7</f>
         <v>8147.2533999999996</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+      <c r="D8" s="14"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <f>'Financial Model'!U62</f>
         <v>107725.12</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="14" t="str">
         <f>$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <f>'Financial Model'!U63</f>
         <v>105071.696</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="14" t="str">
         <f>$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <f>C9-C10</f>
         <v>2653.4239999999991</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="14" t="str">
         <f>$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <f>C8-C11</f>
         <v>5493.8294000000005</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="25"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="25"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="10"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
+      <c r="D16" s="40"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
+      <c r="D17" s="40"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
+      <c r="D18" s="40"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H20" s="25"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H21" s="25"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="39">
         <v>2012</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
+      <c r="D24" s="40"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="25"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="10"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="25"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="25"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="17" t="str">
         <f>'Financial Model'!U1</f>
         <v>Q322</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="32">
         <f>'Financial Model'!U3</f>
         <v>44868</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
+      <c r="D29" s="42"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1620,10 +1620,10 @@
   <dimension ref="B1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q4:Q19"/>
+      <selection pane="bottomRight" activeCell="T50" sqref="S40:T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1635,150 +1635,150 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="2:40" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:40" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
-      <c r="Q2" s="33">
+    <row r="2" spans="2:40" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="22"/>
+      <c r="Q2" s="24">
         <v>44469</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="24">
         <v>44834</v>
       </c>
     </row>
-    <row r="3" spans="2:40" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="U3" s="34">
+    <row r="3" spans="2:40" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+      <c r="U3" s="25">
         <v>44868</v>
       </c>
     </row>
-    <row r="4" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="2:40" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="31">
         <v>1234.7360000000001</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="31">
         <v>576.375</v>
       </c>
     </row>
-    <row r="5" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="2:40" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="31">
         <v>77.171999999999997</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="31">
         <v>13.964</v>
       </c>
     </row>
@@ -1786,11 +1786,11 @@
       <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="28">
         <f>Q4+Q5</f>
         <v>1311.9080000000001</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="28">
         <f>U4+U5</f>
         <v>590.33900000000006</v>
       </c>
@@ -1799,10 +1799,10 @@
       <c r="B7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="27">
         <v>197.251</v>
       </c>
-      <c r="U7" s="36">
+      <c r="U7" s="27">
         <v>101.876</v>
       </c>
     </row>
@@ -1810,10 +1810,10 @@
       <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="27">
         <v>356.26400000000001</v>
       </c>
-      <c r="U8" s="36">
+      <c r="U8" s="27">
         <v>556.33799999999997</v>
       </c>
     </row>
@@ -1821,10 +1821,10 @@
       <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="27">
         <v>105.395</v>
       </c>
-      <c r="U9" s="36">
+      <c r="U9" s="27">
         <v>75.888000000000005</v>
       </c>
     </row>
@@ -1832,10 +1832,10 @@
       <c r="B10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="27">
         <v>242.642</v>
       </c>
-      <c r="U10" s="36">
+      <c r="U10" s="27">
         <v>339.15699999999998</v>
       </c>
     </row>
@@ -1843,10 +1843,10 @@
       <c r="B11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="27">
         <v>0</v>
       </c>
-      <c r="U11" s="36">
+      <c r="U11" s="27">
         <v>-1.232</v>
       </c>
     </row>
@@ -1854,10 +1854,10 @@
       <c r="B12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="27">
         <v>118.548</v>
       </c>
-      <c r="U12" s="36">
+      <c r="U12" s="27">
         <v>74.796000000000006</v>
       </c>
     </row>
@@ -1865,11 +1865,11 @@
       <c r="B13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="27">
         <f>SUM(Q7:Q12)</f>
         <v>1020.0999999999999</v>
       </c>
-      <c r="U13" s="36">
+      <c r="U13" s="27">
         <f>SUM(U7:U12)</f>
         <v>1146.8230000000001</v>
       </c>
@@ -1878,11 +1878,11 @@
       <c r="B14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="28">
         <f>Q6-Q13</f>
         <v>291.80800000000022</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="28">
         <f>U6-U13</f>
         <v>-556.48400000000004</v>
       </c>
@@ -1891,10 +1891,10 @@
       <c r="B15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="27">
         <v>6.9720000000000004</v>
       </c>
-      <c r="U15" s="36">
+      <c r="U15" s="27">
         <v>21.507000000000001</v>
       </c>
     </row>
@@ -1902,10 +1902,10 @@
       <c r="B16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="27">
         <v>13.976000000000001</v>
       </c>
-      <c r="U16" s="36">
+      <c r="U16" s="27">
         <v>65.698999999999998</v>
       </c>
     </row>
@@ -1913,11 +1913,11 @@
       <c r="B17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="27">
         <f>Q14-Q15-Q16</f>
         <v>270.86000000000024</v>
       </c>
-      <c r="U17" s="36">
+      <c r="U17" s="27">
         <f>U14-U15-U16</f>
         <v>-643.68999999999994</v>
       </c>
@@ -1926,10 +1926,10 @@
       <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="27">
         <v>-135.24</v>
       </c>
-      <c r="U18" s="36">
+      <c r="U18" s="27">
         <v>-99.055000000000007</v>
       </c>
     </row>
@@ -1937,11 +1937,11 @@
       <c r="B19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="28">
         <f>Q17-Q18</f>
         <v>406.10000000000025</v>
       </c>
-      <c r="U19" s="37">
+      <c r="U19" s="28">
         <f>U17-U18</f>
         <v>-544.63499999999999</v>
       </c>
@@ -1950,11 +1950,11 @@
       <c r="B20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="34">
         <f>Q19/Q21</f>
         <v>1.9374630255147813</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="34">
         <f>U19/U21</f>
         <v>-2.4323183693885206</v>
       </c>
@@ -1963,10 +1963,10 @@
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="27">
         <v>209.60400000000001</v>
       </c>
-      <c r="U21" s="36">
+      <c r="U21" s="27">
         <v>223.916</v>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       <c r="B23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="U23" s="44">
+      <c r="U23" s="35">
         <f>U6/Q6-1</f>
         <v>-0.55001494007201723</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="26" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U27" s="37">
+      <c r="U27" s="28">
         <v>5006.5839999999998</v>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="28">
         <v>23.113</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U29" s="37">
+      <c r="U29" s="28">
         <v>6591.1049999999996</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U30" s="37">
+      <c r="U30" s="28">
         <v>95113.123999999996</v>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U31" s="37">
+      <c r="U31" s="28">
         <v>368.12099999999998</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U32" s="36">
+      <c r="U32" s="27">
         <v>240.35400000000001</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U33" s="36">
+      <c r="U33" s="27">
         <v>60.521999999999998</v>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U34" s="36">
+      <c r="U34" s="27">
         <v>277.04399999999998</v>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U35" s="36">
+      <c r="U35" s="27">
         <f>SUM(U27:U34)</f>
         <v>107679.96699999999</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U36" s="37">
+      <c r="U36" s="28">
         <v>623.07299999999998</v>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U37" s="36">
+      <c r="U37" s="27">
         <v>76.465000000000003</v>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U38" s="36">
+      <c r="U38" s="27">
         <v>170.922</v>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U39" s="36">
+      <c r="U39" s="27">
         <f>1073.906+161.669</f>
         <v>1235.575</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="B40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U40" s="36">
+      <c r="U40" s="27">
         <v>1382.3610000000001</v>
       </c>
     </row>
@@ -2107,19 +2107,19 @@
       <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U41" s="36">
+      <c r="U41" s="27">
         <f>SUM(U36:U40)+U35</f>
         <v>111168.36299999998</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="U42" s="36"/>
+      <c r="U42" s="27"/>
     </row>
     <row r="43" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U43" s="37">
+      <c r="U43" s="28">
         <v>6357.6570000000002</v>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       <c r="B44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U44" s="37">
+      <c r="U44" s="28">
         <v>95113.123999999996</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U45" s="36">
+      <c r="U45" s="27">
         <v>61.514000000000003</v>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       <c r="B46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U46" s="36">
+      <c r="U46" s="27">
         <v>298.101</v>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       <c r="B47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U47" s="37">
+      <c r="U47" s="28">
         <v>209.678</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       <c r="B48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U48" s="36">
+      <c r="U48" s="27">
         <v>33.024999999999999</v>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       <c r="B49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U49" s="36">
+      <c r="U49" s="27">
         <f>SUM(U43:U48)</f>
         <v>102073.09899999999</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="B50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U50" s="36">
+      <c r="U50" s="27">
         <v>50.167000000000002</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       <c r="B51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U51" s="37">
+      <c r="U51" s="28">
         <v>3391.2370000000001</v>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       <c r="B52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U52" s="36">
+      <c r="U52" s="27">
         <v>27.545000000000002</v>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U53" s="36">
+      <c r="U53" s="27">
         <f>SUM(U50:U52)+U49</f>
         <v>105542.04799999998</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="B55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U55" s="36">
+      <c r="U55" s="27">
         <v>5626.3149999999996</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U56" s="36">
+      <c r="U56" s="27">
         <f>U55+U53</f>
         <v>111168.36299999998</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="B58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U58" s="36">
+      <c r="U58" s="27">
         <f>U41-U53</f>
         <v>5626.3150000000023</v>
       </c>
@@ -2240,20 +2240,20 @@
         <v>25.126900266171255</v>
       </c>
     </row>
-    <row r="62" spans="2:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="39" t="s">
+    <row r="62" spans="2:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="U62" s="40">
+      <c r="U62" s="31">
         <f>SUM(U27:U31)+U36</f>
         <v>107725.12</v>
       </c>
     </row>
-    <row r="63" spans="2:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
+    <row r="63" spans="2:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="U63" s="40">
+      <c r="U63" s="31">
         <f>U43+U44+U47+U51</f>
         <v>105071.696</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U64" s="36">
+      <c r="U64" s="27">
         <f>U62-U63</f>
         <v>2653.4239999999991</v>
       </c>
